--- a/biology/Botanique/Aegilops_mutica/Aegilops_mutica.xlsx
+++ b/biology/Botanique/Aegilops_mutica/Aegilops_mutica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aegilops mutica (synonyme : Amblyopyrum muticum) est une espèce de plantes monocotylédones  de la famille des Poaceae (graminées), sous-famille des Pooideae originaire d'Asie occidentale.
-Ce sont des plantes herbacées annuelles, à l'inflorescence en épi simple[2].
+Ce sont des plantes herbacées annuelles, à l'inflorescence en épi simple.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (12 mai 2017)[3] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (12 mai 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Aegilops mutica subsp. loliacea (Jaub.) Zhuk.
 sous-espèce Aegilops mutica subsp. tripsacoides (Jaub.) Zhuk.
 variété Aegilops mutica var. ligustica (Savign.) Coss.
